--- a/Results/60.xlsx
+++ b/Results/60.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\PycharmProjects\generalized_backtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\PycharmProjects\generalized_backtest\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468BCC5-F212-4982-B348-17BBE0F0C43C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C525F81-5C5C-4156-9A8F-B24E82AD030E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3852,11 +3852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="AY2:AY58 A2:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AJ66" sqref="AJ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
